--- a/biology/Zoologie/Java_(race_de_poule)/Java_(race_de_poule).xlsx
+++ b/biology/Zoologie/Java_(race_de_poule)/Java_(race_de_poule).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Java est une race de poule domestique originaire d'Angleterre. Elle serait une des plus anciennes races de poules anglaises.
@@ -513,14 +525,86 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une poule naine vive et gracieuse, au corps court et large, aux contours arrondis. Elle possède un plumage riche de plumes larges.
 Tête ornée d'une longue crête frisée avec de grands oreillons blancs.
-Origine
-Race originaire d'Angleterre contrairement à ce que son nom peut laisser penser.
-Standard officiel
-Masse idéale : Coq : 600 g ; Poule : 500 g
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Java_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Java_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Race originaire d'Angleterre contrairement à ce que son nom peut laisser penser.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Java_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Java_(race_de_poule)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard officiel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masse idéale : Coq : 600 g ; Poule : 500 g
 Crête : frisée
 Oreillons : blancs
 Couleur des yeux : couleur selon variété
